--- a/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a25_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a25_reformulation.xlsx
@@ -51,7 +51,7 @@
     <t>num quad cons</t>
   </si>
   <si>
-    <t>OPTIMAL</t>
+    <t>TIME_LIMIT</t>
   </si>
 </sst>
 </file>
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1438.45663481422</v>
+        <v>-876.2104421878598</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>17.5040401738034</v>
       </c>
       <c r="D2">
-        <v>2603.151299122</v>
+        <v>6127.039261993</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1427.9132751704967</v>
+        <v>-876.021618391906</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>16.387172082251393</v>
       </c>
       <c r="D3">
-        <v>2594.353778501</v>
+        <v>6139.793126259</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1431.1234567604338</v>
+        <v>-847.5899662464269</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>21.587613429401056</v>
       </c>
       <c r="D4">
-        <v>2600.372314242</v>
+        <v>6087.922400458</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1428.8271505904506</v>
+        <v>-866.6470038989896</v>
       </c>
       <c r="C5">
-        <v>1.5913308712621812e-14</v>
+        <v>18.8424537190228</v>
       </c>
       <c r="D5">
-        <v>2596.423611567</v>
+        <v>3637.298144018</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1430.8057250884553</v>
+        <v>-862.6312809711787</v>
       </c>
       <c r="C6">
-        <v>3.178260632541982e-14</v>
+        <v>19.51898804737151</v>
       </c>
       <c r="D6">
-        <v>2601.259863332</v>
+        <v>6075.057239086</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1422.6600489256505</v>
+        <v>-869.3345895083158</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>18.64903338927495</v>
       </c>
       <c r="D7">
-        <v>2597.199805556</v>
+        <v>5925.520222395</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-1434.3328545996974</v>
+        <v>-870.3357241901938</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>18.14478172461124</v>
       </c>
       <c r="D8">
-        <v>2591.673929238</v>
+        <v>6115.873545012</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1423.696623527594</v>
+        <v>-851.210091750839</v>
       </c>
       <c r="C9">
-        <v>0.0</v>
+        <v>19.354555684943282</v>
       </c>
       <c r="D9">
-        <v>2599.604136326</v>
+        <v>6083.809524229</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-1430.5223557418108</v>
+        <v>-853.1355957022353</v>
       </c>
       <c r="C10">
-        <v>4.7683353118653516e-14</v>
+        <v>20.570581618543063</v>
       </c>
       <c r="D10">
-        <v>2600.657193435</v>
+        <v>5948.246096167</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1437.9375322645537</v>
+        <v>-853.2554335268328</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>20.855492771536152</v>
       </c>
       <c r="D11">
-        <v>2610.474065627</v>
+        <v>6061.641823626</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
